--- a/Codebook.xlsx
+++ b/Codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steff\Documents\Universität\Master Psychologie\SS 2022\Masterarbeit\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF9984-748D-441B-8154-E9D4B624859B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A0D49D-FF74-4929-AA9A-76143A9F4405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4404" windowHeight="3300" xr2:uid="{FFAA8750-F4F5-4320-A4F0-5AF50A27E673}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4410" windowHeight="3300" xr2:uid="{FFAA8750-F4F5-4320-A4F0-5AF50A27E673}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>Codebook Colour Discrimination Task</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>orangenetaste</t>
-  </si>
-  <si>
-    <t>green; yellow</t>
   </si>
   <si>
     <t>accuracy; speed</t>
@@ -139,9 +136,6 @@
     <t>Schwierigkeit des Trials</t>
   </si>
   <si>
-    <t>0: höchste Schwierigkeit;1;2;3:niedrigste Schwierigkeit</t>
-  </si>
-  <si>
     <t>correct_colour</t>
   </si>
   <si>
@@ -212,31 +206,6 @@
   </si>
   <si>
     <t>1, wenn in Speed Bedingung falsch entschieden wurde und man zu langsam war</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wird manuell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pseudorandomisiert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Hintergrundfarbe in der Accuracy Bedingung</t>
-    </r>
   </si>
   <si>
     <r>
@@ -287,6 +256,84 @@
       </rPr>
       <t xml:space="preserve"> auf welcher Taste orange ist</t>
     </r>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>0: niedrigste Schwierigkeit;1;2;3:höchste Schwierigkeit</t>
+  </si>
+  <si>
+    <t>difficulty_f</t>
+  </si>
+  <si>
+    <t>Schwierigkeit des Trials, in Worten</t>
+  </si>
+  <si>
+    <t>sehr leicht; eher leicht; eher schwer; sehr schwer</t>
+  </si>
+  <si>
+    <t>wird nicht randomisiert, ist immer green</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Identifikations-Variable zum zusammenführen der Datensätze. Länge:8</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>Alter der Probanden</t>
+  </si>
+  <si>
+    <t>Studiengang</t>
+  </si>
+  <si>
+    <t>Bildungsabschluss</t>
+  </si>
+  <si>
+    <t>5: Abitur oder Fachhochschulreife; 6: Hochschulabschluss</t>
+  </si>
+  <si>
+    <t>haendig1</t>
+  </si>
+  <si>
+    <t>haendig2</t>
+  </si>
+  <si>
+    <t>haendig3</t>
+  </si>
+  <si>
+    <t>Antwort zu: Mit welcher Hand schreibst du?</t>
+  </si>
+  <si>
+    <t>1:linke Hand; 2:beide Hände; 3:rechte Hand</t>
+  </si>
+  <si>
+    <t>Durchschnitt aus den anderen 3 Fragen</t>
+  </si>
+  <si>
+    <t>Antwort zu: Mit welcher Hand benutzt du lieber einen Löffel beim Essen?</t>
+  </si>
+  <si>
+    <t>Antwort zu: Mit welcher Hand benutzt du lieber eine Zahnbürste?</t>
+  </si>
+  <si>
+    <t>haendig_mean</t>
+  </si>
+  <si>
+    <t>Durchschnitt aus den vorherigen 4</t>
+  </si>
+  <si>
+    <t>haendig4</t>
+  </si>
+  <si>
+    <t>Antwort zu: Mit welcher Hand zeichnest du?</t>
   </si>
 </sst>
 </file>
@@ -380,8 +427,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC2ABBEA-C1BE-4018-9AD8-1573B453CB37}" name="Tabelle1" displayName="Tabelle1" ref="B3:D30" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="B3:D30" xr:uid="{8ACFDD01-B0D4-4173-93E4-A3ECC6A1CC03}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC2ABBEA-C1BE-4018-9AD8-1573B453CB37}" name="Tabelle1" displayName="Tabelle1" ref="B3:D33" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="B3:D33" xr:uid="{8ACFDD01-B0D4-4173-93E4-A3ECC6A1CC03}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{582FEF7F-0669-4776-A306-A8F0955D496B}" name="Variable Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A2502F26-F99D-43CF-929B-95D74DC71E61}" name="Description" dataDxfId="1"/>
@@ -688,25 +735,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18180640-4CD7-4550-B8D1-A0C75567CC3C}">
-  <dimension ref="B1:D30"/>
+  <dimension ref="B1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -717,194 +764,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -912,59 +959,134 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
